--- a/Documents/기능_명세서.xlsx
+++ b/Documents/기능_명세서.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="18255" windowHeight="8220"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>메인화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,20 +46,164 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하위 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TNB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디·비밀번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공실정보 게시판 내용의 상위 5개 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naver지도를 이용해서 메인에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 클릭시 회원가입 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 클릭시 아이디 비밀번호 찾는 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 정보 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(관리자) 회원관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 클릭시 아이디 비밀번호 입력 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 수정, 탈퇴하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입양식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호(비공개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름(비공개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일(비공개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰번호(비공개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원레벨 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원룸공실안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임대료, 면적, 난방/전기, 주차, 입주 가능 날짜, 기타사항, 파일첨부 기능 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공과금 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>공지사항에 추가 글 기재
-글 제목, 글 내용 입력 및 파일 첨부 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하위 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
+글 제목, 글 내용 입력 및 파일 첨부, 공개설정 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 제목 입력, 공개설정 입력 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 내용 입력에 전기, 난방 tab을 삽입하여 각각 파일첨부 기능 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호, 제목, 작성자, 등록일 ( 관리자 삭제, 내용수정버튼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지, 글 제목 ( 관리자 삭제, 내용수정버튼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호, 제목, 작성자, 등록일 ( 관리자 삭제, 내용수정버튼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찾아오는길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도, 이용버스, 오는길 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +245,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -149,14 +293,260 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -167,30 +557,99 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,76 +945,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="18" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="33">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
+      <c r="C16" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.5" customHeight="1" thickBot="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
+      <c r="C17" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="33.75" thickBot="1">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A23" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
